--- a/PCB Assembly/USB-SW-A/BOM Basic.xlsx
+++ b/PCB Assembly/USB-SW-A/BOM Basic.xlsx
@@ -102,7 +102,7 @@
     <t>D3</t>
   </si>
   <si>
-    <t>USBLC6-4SC6</t>
+    <t>USBLC6-2SC6</t>
   </si>
   <si>
     <t>ESD Protection Diodes / TVS Diodes 2 Line 2.5pF USB 2.0 ESD Protect SOT23-6</t>
